--- a/산출물/설계/AND-04.DB설계산출물/20200813_프로젝트 상세_AND-04_테이블정의서_v0.2.xlsx
+++ b/산출물/설계/AND-04.DB설계산출물/20200813_프로젝트 상세_AND-04_테이블정의서_v0.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\IMS\산출물\09.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\infogen_ims\산출물\설계\AND-04.DB설계산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="114">
   <si>
     <t>프로젝트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,10 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -369,10 +365,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,6 +442,46 @@
   </si>
   <si>
     <t>TB_PRJ_REQ_SKIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -842,6 +874,9 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -901,9 +936,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1224,16 +1256,16 @@
       <c r="L6" s="5"/>
     </row>
     <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="25"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="27"/>
+      <c r="L9" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1569,10 +1601,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E6" s="16"/>
     </row>
@@ -1663,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1677,22 +1709,22 @@
     <col min="6" max="6" width="13.25" style="20" customWidth="1"/>
     <col min="7" max="7" width="9" style="20"/>
     <col min="8" max="8" width="15.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="20"/>
-    <col min="10" max="10" width="12.125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="16.375" style="20" customWidth="1"/>
     <col min="11" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -1754,18 +1786,18 @@
       <c r="A5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -1778,12 +1810,12 @@
         <v>30</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="11" t="s">
         <v>31</v>
       </c>
@@ -1792,87 +1824,87 @@
         <v>32</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
-      <c r="B13" s="29" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -1896,7 +1928,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>28</v>
       </c>
@@ -1910,57 +1942,55 @@
         <v>37</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>67</v>
       </c>
       <c r="G17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+      <c r="B18" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>70</v>
-      </c>
       <c r="F18" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="24">
-        <v>30</v>
+        <v>104</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>113</v>
       </c>
       <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I18" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>0</v>
       </c>
@@ -1968,51 +1998,47 @@
         <v>0</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="24">
-        <v>30</v>
+        <v>105</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>113</v>
       </c>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="24">
-        <v>30</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J20" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>44</v>
       </c>
@@ -2027,17 +2053,14 @@
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="24">
-        <v>30</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="11"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>45</v>
       </c>
@@ -2045,24 +2068,21 @@
         <v>45</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>45</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="24">
-        <v>30</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="11"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>46</v>
       </c>
@@ -2077,19 +2097,16 @@
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" s="24">
-        <v>50</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="24"/>
-      <c r="K23" s="11"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I23" s="24"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>48</v>
       </c>
@@ -2104,19 +2121,16 @@
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" s="24">
-        <v>20</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G24" s="24"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J24" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>49</v>
       </c>
@@ -2124,24 +2138,21 @@
         <v>49</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="24">
-        <v>10</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G25" s="24"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="11"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>50</v>
       </c>
@@ -2149,124 +2160,109 @@
         <v>50</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>50</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="24">
-        <v>10</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G26" s="24"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="24">
-        <v>30</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G27" s="24"/>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="11"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="24">
-        <v>20</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="24">
-        <v>30</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="11"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="24">
-        <v>20</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G30" s="24"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="11"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>47</v>
       </c>
@@ -2281,19 +2277,16 @@
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" s="24">
-        <v>500</v>
-      </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="J31" s="24"/>
-      <c r="K31" s="11"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I31" s="24"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>54</v>
       </c>
@@ -2308,34 +2301,31 @@
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" s="24">
-        <v>5</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G32" s="24"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="11" t="s">
+      <c r="J32" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
       <c r="K33" s="15"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2352,205 +2342,183 @@
         <v>37</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>67</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K35" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C36" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>96</v>
-      </c>
       <c r="F36" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G36" s="24">
-        <v>30</v>
+        <v>104</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>113</v>
       </c>
       <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="11" t="s">
+      <c r="I36" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="K36" s="11"/>
+      <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G37" s="24">
-        <v>10</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G37" s="24"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="11"/>
+      <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="24">
-        <v>20</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G38" s="24"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="11"/>
+      <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="24">
-        <v>30</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G39" s="24"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="11"/>
+      <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" s="24">
-        <v>20</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G40" s="24"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="11"/>
+      <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" s="24">
-        <v>30</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G41" s="24"/>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="11"/>
+      <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="G42" s="24">
-        <v>20</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G42" s="24"/>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="11"/>
+      <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
@@ -2562,8 +2530,7 @@
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="11"/>
+      <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
@@ -2575,8 +2542,7 @@
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="11"/>
+      <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
@@ -2588,8 +2554,7 @@
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="11"/>
+      <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
@@ -2601,8 +2566,7 @@
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="11"/>
+      <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
@@ -2614,8 +2578,7 @@
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="11"/>
+      <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24"/>
@@ -2627,10 +2590,9 @@
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="11"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J48" s="11"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -2640,10 +2602,9 @@
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="11"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J49" s="11"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="24"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
@@ -2653,8 +2614,7 @@
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="11"/>
+      <c r="J50" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
